--- a/script/ground_truth/px4_docs/px4_orbit/raw_data.xlsx
+++ b/script/ground_truth/px4_docs/px4_orbit/raw_data.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD40CBC-65CE-724F-B4A0-85ED9E0DF8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="15540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -13,12 +12,25 @@
     <sheet name="union" sheetId="3" r:id="rId3"/>
     <sheet name="mtl" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="145">
   <si>
     <t>index</t>
   </si>
@@ -286,7 +298,13 @@
     <t>- The maximum acceleration is limited to 2 m/s^2, with priority on keeping the commanded circle trajectory rather than commanded ground speed (i.e. the vehicle will slow down in order to achieve the correct circle if the acceleration exceeds 2m/s^2).</t>
   </si>
   <si>
+    <t>mtl</t>
+  </si>
+  <si>
     <t>Explaination</t>
+  </si>
+  <si>
+    <t>The _Orbit_ guided flight mode allows you to command a multicopter (or VTOL in multicopter mode) to fly in a circle at a particular location, by [default](l#ORBIT_YAW_BEHAVIOUR) yawing so that it always faces towards the center.</t>
   </si>
   <si>
     <t>G(O → (C ∧ Y))</t>
@@ -335,6 +353,9 @@
   </si>
   <si>
     <t>O represents Orbit mode, R represents RC stick movement, H represents height change, S represents speed change, and D represents direction change. This formula expresses that globally, when in Orbit mode, RC stick movement can lead to changes in height, speed, or direction.</t>
+  </si>
+  <si>
+    <t>The mode can be triggered using the [MAV_CMD_DO_ORBIT](#MMAV_CMD_DO_ORBIT) MAVLink command.</t>
   </si>
   <si>
     <t>G(M → X(O))</t>
@@ -445,64 +466,206 @@
     <t>Let A represent acceleration exceeding 2 m/s^2, C represent keeping the correct circle trajectory, and S represent maintaining commanded ground speed. The formula states that globally, if acceleration exceeds the limit, the system prioritizes the correct circle trajectory over maintaining the commanded ground speed.</t>
   </si>
   <si>
+    <t>[MAV_CMD_DO_ORBIT] - Start an orbit with specified center point, radius, direction, altitude, speed and [yaw direction](#ORBIT_YAW_BEHAVIOUR) (vehicle defaults to faceing centre of orbit).</t>
+  </si>
+  <si>
     <t>F(O ∧ X(G(P ∧ Y)))</t>
   </si>
   <si>
     <t>Let O represent the MAV_CMD_DO_ORBIT command being issued, P represent the specified orbit parameters being followed, and Y represent the default yaw behavior. The formula states that eventually, the orbit command will be issued, and in the next state, the specified parameters will be followed globally, including the default yaw behavior.</t>
   </si>
-  <si>
-    <t>mtl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The _Orbit_ guided flight mode allows you to command a multicopter (or VTOL in multicopter mode) to fly in a circle at a particular location, by [default](l#ORBIT_YAW_BEHAVIOUR) yawing so that it always faces towards the center.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The mode can be triggered using the [MAV_CMD_DO_ORBIT](#MMAV_CMD_DO_ORBIT) MAVLink command.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[MAV_CMD_DO_ORBIT] - Start an orbit with specified center point, radius, direction, altitude, speed and [yaw direction](#ORBIT_YAW_BEHAVIOUR) (vehicle defaults to faceing centre of orbit).</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0."/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,10 +675,197 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -538,22 +888,282 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -562,21 +1172,65 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -898,28 +1552,28 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="59.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.3365384615385" customWidth="1"/>
+    <col min="3" max="3" width="8.33653846153846" customWidth="1"/>
+    <col min="4" max="4" width="59.1634615384615" customWidth="1"/>
     <col min="5" max="26" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="25.75" customHeight="1">
+    <row r="1" ht="25.75" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -955,7 +1609,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="80.5" customHeight="1">
+    <row r="2" ht="80.5" customHeight="1" spans="1:26">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -965,7 +1619,7 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="1"/>
@@ -989,17 +1643,17 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="39.5" customHeight="1">
+    <row r="3" ht="39.5" customHeight="1" spans="1:26">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="1"/>
@@ -1023,11 +1677,11 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="39.5" customHeight="1">
+    <row r="4" ht="39.5" customHeight="1" spans="1:26">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1057,11 +1711,11 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="39.5" customHeight="1">
+    <row r="5" ht="39.5" customHeight="1" spans="1:26">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1091,11 +1745,11 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="39.5" customHeight="1">
+    <row r="6" ht="39.5" customHeight="1" spans="1:26">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1125,11 +1779,11 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="39.5" customHeight="1">
+    <row r="7" ht="39.5" customHeight="1" spans="1:26">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1159,11 +1813,11 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="39.5" customHeight="1">
+    <row r="8" ht="39.5" customHeight="1" spans="1:26">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1195,11 +1849,11 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="39.5" customHeight="1">
+    <row r="9" ht="39.5" customHeight="1" spans="1:26">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1231,17 +1885,17 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="53.25" customHeight="1">
+    <row r="10" ht="53.25" customHeight="1" spans="1:26">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="1"/>
@@ -1267,7 +1921,7 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="53.25" customHeight="1">
+    <row r="11" ht="53.25" customHeight="1" spans="1:26">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1303,11 +1957,11 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="66.75" customHeight="1">
+    <row r="12" ht="66.75" customHeight="1" spans="1:26">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1339,11 +1993,11 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="39.5" customHeight="1">
+    <row r="13" ht="39.5" customHeight="1" spans="1:26">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1375,11 +2029,11 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="39.5" customHeight="1">
+    <row r="14" ht="39.5" customHeight="1" spans="1:26">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1411,11 +2065,11 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="39.5" customHeight="1">
+    <row r="15" ht="39.5" customHeight="1" spans="1:26">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1447,11 +2101,11 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="39.5" customHeight="1">
+    <row r="16" ht="39.5" customHeight="1" spans="1:26">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1483,11 +2137,11 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="39.5" customHeight="1">
+    <row r="17" ht="39.5" customHeight="1" spans="1:26">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1519,11 +2173,11 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="39.5" customHeight="1">
+    <row r="18" ht="39.5" customHeight="1" spans="1:26">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1555,11 +2209,11 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="39.5" customHeight="1">
+    <row r="19" ht="39.5" customHeight="1" spans="1:26">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1591,11 +2245,11 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="39.5" customHeight="1">
+    <row r="20" ht="39.5" customHeight="1" spans="1:26">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1627,11 +2281,11 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="39.5" customHeight="1">
+    <row r="21" ht="39.5" customHeight="1" spans="1:26">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1663,11 +2317,11 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="39.5" customHeight="1">
+    <row r="22" ht="39.5" customHeight="1" spans="1:26">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1699,11 +2353,11 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="39.5" customHeight="1">
+    <row r="23" ht="39.5" customHeight="1" spans="1:26">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1735,11 +2389,11 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="39.5" customHeight="1">
+    <row r="24" ht="39.5" customHeight="1" spans="1:26">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1771,11 +2425,11 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="39.5" customHeight="1">
+    <row r="25" ht="39.5" customHeight="1" spans="1:26">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1807,11 +2461,11 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="25.75" customHeight="1">
+    <row r="26" ht="25.75" customHeight="1" spans="1:26">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1843,11 +2497,11 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="25.75" customHeight="1">
+    <row r="27" ht="25.75" customHeight="1" spans="1:26">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1879,11 +2533,11 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="39.5" customHeight="1">
+    <row r="28" ht="39.5" customHeight="1" spans="1:26">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1915,11 +2569,11 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="25.75" customHeight="1">
+    <row r="29" ht="25.75" customHeight="1" spans="1:26">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1951,11 +2605,11 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="39.5" customHeight="1">
+    <row r="30" ht="39.5" customHeight="1" spans="1:26">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1987,11 +2641,11 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="80.5" customHeight="1">
+    <row r="31" ht="80.5" customHeight="1" spans="1:26">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2023,17 +2677,17 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="94.25" customHeight="1">
+    <row r="32" ht="94.25" customHeight="1" spans="1:26">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E32" s="1"/>
@@ -2059,17 +2713,17 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="66.75" customHeight="1">
+    <row r="33" ht="66.75" customHeight="1" spans="1:26">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E33" s="1"/>
@@ -2095,7 +2749,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="24" customHeight="1">
+    <row r="34" ht="24" customHeight="1" spans="1:26">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2123,7 +2777,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="24" customHeight="1">
+    <row r="35" ht="24" customHeight="1" spans="1:26">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2151,7 +2805,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="24" customHeight="1">
+    <row r="36" ht="24" customHeight="1" spans="1:26">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2179,7 +2833,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="24" customHeight="1">
+    <row r="37" ht="24" customHeight="1" spans="1:26">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2207,7 +2861,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="24" customHeight="1">
+    <row r="38" ht="24" customHeight="1" spans="1:26">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2235,7 +2889,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="24" customHeight="1">
+    <row r="39" ht="24" customHeight="1" spans="1:26">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2263,7 +2917,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="24" customHeight="1">
+    <row r="40" ht="24" customHeight="1" spans="1:26">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2291,7 +2945,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="24" customHeight="1">
+    <row r="41" ht="24" customHeight="1" spans="1:26">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2319,7 +2973,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="24" customHeight="1">
+    <row r="42" ht="24" customHeight="1" spans="1:26">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2347,7 +3001,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="24" customHeight="1">
+    <row r="43" ht="24" customHeight="1" spans="1:26">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2375,7 +3029,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="24" customHeight="1">
+    <row r="44" ht="24" customHeight="1" spans="1:26">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2403,7 +3057,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="24" customHeight="1">
+    <row r="45" ht="24" customHeight="1" spans="1:26">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2431,7 +3085,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="24" customHeight="1">
+    <row r="46" ht="24" customHeight="1" spans="1:26">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2459,7 +3113,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="24" customHeight="1">
+    <row r="47" ht="24" customHeight="1" spans="1:26">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2487,7 +3141,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="24" customHeight="1">
+    <row r="48" ht="24" customHeight="1" spans="1:26">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2515,7 +3169,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="24" customHeight="1">
+    <row r="49" ht="24" customHeight="1" spans="1:26">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2543,7 +3197,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="24" customHeight="1">
+    <row r="50" ht="24" customHeight="1" spans="1:26">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2571,7 +3225,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="24" customHeight="1">
+    <row r="51" ht="24" customHeight="1" spans="1:26">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2599,7 +3253,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="24" customHeight="1">
+    <row r="52" ht="24" customHeight="1" spans="1:26">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2627,7 +3281,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="24" customHeight="1">
+    <row r="53" ht="24" customHeight="1" spans="1:26">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2655,7 +3309,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="24" customHeight="1">
+    <row r="54" ht="24" customHeight="1" spans="1:26">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2683,7 +3337,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="24" customHeight="1">
+    <row r="55" ht="24" customHeight="1" spans="1:26">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2711,7 +3365,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="24" customHeight="1">
+    <row r="56" ht="24" customHeight="1" spans="1:26">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2739,7 +3393,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="24" customHeight="1">
+    <row r="57" ht="24" customHeight="1" spans="1:26">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2767,7 +3421,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="24" customHeight="1">
+    <row r="58" ht="24" customHeight="1" spans="1:26">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2795,7 +3449,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" ht="24" customHeight="1">
+    <row r="59" ht="24" customHeight="1" spans="1:26">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2823,7 +3477,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="24" customHeight="1">
+    <row r="60" ht="24" customHeight="1" spans="1:26">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2851,7 +3505,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="24" customHeight="1">
+    <row r="61" ht="24" customHeight="1" spans="1:26">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2879,7 +3533,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="24" customHeight="1">
+    <row r="62" ht="24" customHeight="1" spans="1:26">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2907,7 +3561,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" ht="24" customHeight="1">
+    <row r="63" ht="24" customHeight="1" spans="1:26">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2935,7 +3589,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="24" customHeight="1">
+    <row r="64" ht="24" customHeight="1" spans="1:26">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2963,7 +3617,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" ht="24" customHeight="1">
+    <row r="65" ht="24" customHeight="1" spans="1:26">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2991,7 +3645,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" ht="24" customHeight="1">
+    <row r="66" ht="24" customHeight="1" spans="1:26">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3019,7 +3673,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="24" customHeight="1">
+    <row r="67" ht="24" customHeight="1" spans="1:26">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3047,7 +3701,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="24" customHeight="1">
+    <row r="68" ht="24" customHeight="1" spans="1:26">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3075,7 +3729,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="24" customHeight="1">
+    <row r="69" ht="24" customHeight="1" spans="1:26">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3103,7 +3757,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" ht="24" customHeight="1">
+    <row r="70" ht="24" customHeight="1" spans="1:26">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3131,7 +3785,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" ht="24" customHeight="1">
+    <row r="71" ht="24" customHeight="1" spans="1:26">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3159,7 +3813,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="24" customHeight="1">
+    <row r="72" ht="24" customHeight="1" spans="1:26">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3187,7 +3841,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" ht="24" customHeight="1">
+    <row r="73" ht="24" customHeight="1" spans="1:26">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3215,7 +3869,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="24" customHeight="1">
+    <row r="74" ht="24" customHeight="1" spans="1:26">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3243,7 +3897,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="24" customHeight="1">
+    <row r="75" ht="24" customHeight="1" spans="1:26">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3271,7 +3925,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" ht="24" customHeight="1">
+    <row r="76" ht="24" customHeight="1" spans="1:26">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3299,7 +3953,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" ht="24" customHeight="1">
+    <row r="77" ht="24" customHeight="1" spans="1:26">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3327,7 +3981,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="24" customHeight="1">
+    <row r="78" ht="24" customHeight="1" spans="1:26">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3355,7 +4009,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" ht="24" customHeight="1">
+    <row r="79" ht="24" customHeight="1" spans="1:26">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3383,7 +4037,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" ht="24" customHeight="1">
+    <row r="80" ht="24" customHeight="1" spans="1:26">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3411,7 +4065,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" ht="24" customHeight="1">
+    <row r="81" ht="24" customHeight="1" spans="1:26">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3439,7 +4093,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" ht="24" customHeight="1">
+    <row r="82" ht="24" customHeight="1" spans="1:26">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3467,7 +4121,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" ht="24" customHeight="1">
+    <row r="83" ht="24" customHeight="1" spans="1:26">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3495,7 +4149,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" ht="24" customHeight="1">
+    <row r="84" ht="24" customHeight="1" spans="1:26">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3523,7 +4177,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" ht="24" customHeight="1">
+    <row r="85" ht="24" customHeight="1" spans="1:26">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3551,7 +4205,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" ht="24" customHeight="1">
+    <row r="86" ht="24" customHeight="1" spans="1:26">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3579,7 +4233,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" ht="24" customHeight="1">
+    <row r="87" ht="24" customHeight="1" spans="1:26">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3607,7 +4261,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" ht="24" customHeight="1">
+    <row r="88" ht="24" customHeight="1" spans="1:26">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3635,7 +4289,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" ht="24" customHeight="1">
+    <row r="89" ht="24" customHeight="1" spans="1:26">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3663,7 +4317,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="24" customHeight="1">
+    <row r="90" ht="24" customHeight="1" spans="1:26">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3691,7 +4345,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="24" customHeight="1">
+    <row r="91" ht="24" customHeight="1" spans="1:26">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3719,7 +4373,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" ht="24" customHeight="1">
+    <row r="92" ht="24" customHeight="1" spans="1:26">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3747,7 +4401,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" ht="24" customHeight="1">
+    <row r="93" ht="24" customHeight="1" spans="1:26">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3775,7 +4429,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="24" customHeight="1">
+    <row r="94" ht="24" customHeight="1" spans="1:26">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3803,7 +4457,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="24" customHeight="1">
+    <row r="95" ht="24" customHeight="1" spans="1:26">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3831,7 +4485,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" ht="24" customHeight="1">
+    <row r="96" ht="24" customHeight="1" spans="1:26">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3859,7 +4513,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" ht="24" customHeight="1">
+    <row r="97" ht="24" customHeight="1" spans="1:26">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3887,7 +4541,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" ht="24" customHeight="1">
+    <row r="98" ht="24" customHeight="1" spans="1:26">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3915,7 +4569,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" ht="24" customHeight="1">
+    <row r="99" ht="24" customHeight="1" spans="1:26">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3943,7 +4597,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" ht="24" customHeight="1">
+    <row r="100" ht="24" customHeight="1" spans="1:26">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3971,7 +4625,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26" ht="24" customHeight="1">
+    <row r="101" ht="24" customHeight="1" spans="1:26">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3999,7 +4653,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:26" ht="24" customHeight="1">
+    <row r="102" ht="24" customHeight="1" spans="1:26">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4027,7 +4681,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" spans="1:26" ht="24" customHeight="1">
+    <row r="103" ht="24" customHeight="1" spans="1:26">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4055,7 +4709,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" spans="1:26" ht="24" customHeight="1">
+    <row r="104" ht="24" customHeight="1" spans="1:26">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4083,7 +4737,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" ht="24" customHeight="1">
+    <row r="105" ht="24" customHeight="1" spans="1:26">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4111,7 +4765,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:26" ht="24" customHeight="1">
+    <row r="106" ht="24" customHeight="1" spans="1:26">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4139,7 +4793,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" ht="24" customHeight="1">
+    <row r="107" ht="24" customHeight="1" spans="1:26">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4167,7 +4821,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26" ht="24" customHeight="1">
+    <row r="108" ht="24" customHeight="1" spans="1:26">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4195,7 +4849,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" spans="1:26" ht="24" customHeight="1">
+    <row r="109" ht="24" customHeight="1" spans="1:26">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4223,7 +4877,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" spans="1:26" ht="24" customHeight="1">
+    <row r="110" ht="24" customHeight="1" spans="1:26">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4251,7 +4905,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" spans="1:26" ht="24" customHeight="1">
+    <row r="111" ht="24" customHeight="1" spans="1:26">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4279,7 +4933,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26" ht="24" customHeight="1">
+    <row r="112" ht="24" customHeight="1" spans="1:26">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4307,7 +4961,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" spans="1:26" ht="24" customHeight="1">
+    <row r="113" ht="24" customHeight="1" spans="1:26">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4335,7 +4989,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" spans="1:26" ht="24" customHeight="1">
+    <row r="114" ht="24" customHeight="1" spans="1:26">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4363,7 +5017,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" spans="1:26" ht="24" customHeight="1">
+    <row r="115" ht="24" customHeight="1" spans="1:26">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4391,7 +5045,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" spans="1:26" ht="24" customHeight="1">
+    <row r="116" ht="24" customHeight="1" spans="1:26">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4419,7 +5073,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26" ht="24" customHeight="1">
+    <row r="117" ht="24" customHeight="1" spans="1:26">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4447,7 +5101,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:26" ht="24" customHeight="1">
+    <row r="118" ht="24" customHeight="1" spans="1:26">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4475,7 +5129,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" spans="1:26" ht="24" customHeight="1">
+    <row r="119" ht="24" customHeight="1" spans="1:26">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4503,7 +5157,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" spans="1:26" ht="24" customHeight="1">
+    <row r="120" ht="24" customHeight="1" spans="1:26">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4531,7 +5185,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26" ht="24" customHeight="1">
+    <row r="121" ht="24" customHeight="1" spans="1:26">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4559,7 +5213,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26" ht="24" customHeight="1">
+    <row r="122" ht="24" customHeight="1" spans="1:26">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4587,7 +5241,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" spans="1:26" ht="24" customHeight="1">
+    <row r="123" ht="24" customHeight="1" spans="1:26">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4615,7 +5269,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" spans="1:26" ht="24" customHeight="1">
+    <row r="124" ht="24" customHeight="1" spans="1:26">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4643,7 +5297,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" spans="1:26" ht="24" customHeight="1">
+    <row r="125" ht="24" customHeight="1" spans="1:26">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4671,7 +5325,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" spans="1:26" ht="24" customHeight="1">
+    <row r="126" ht="24" customHeight="1" spans="1:26">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4699,7 +5353,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" ht="24" customHeight="1">
+    <row r="127" ht="24" customHeight="1" spans="1:26">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4727,7 +5381,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26" ht="24" customHeight="1">
+    <row r="128" ht="24" customHeight="1" spans="1:26">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4755,7 +5409,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:26" ht="24" customHeight="1">
+    <row r="129" ht="24" customHeight="1" spans="1:26">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4783,7 +5437,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" spans="1:26" ht="24" customHeight="1">
+    <row r="130" ht="24" customHeight="1" spans="1:26">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4811,7 +5465,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26" ht="24" customHeight="1">
+    <row r="131" ht="24" customHeight="1" spans="1:26">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4839,7 +5493,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" spans="1:26" ht="24" customHeight="1">
+    <row r="132" ht="24" customHeight="1" spans="1:26">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4867,7 +5521,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" spans="1:26" ht="24" customHeight="1">
+    <row r="133" ht="24" customHeight="1" spans="1:26">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4895,7 +5549,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="24" customHeight="1">
+    <row r="134" ht="24" customHeight="1" spans="1:26">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4923,7 +5577,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" ht="24" customHeight="1">
+    <row r="135" ht="24" customHeight="1" spans="1:26">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4951,7 +5605,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" spans="1:26" ht="24" customHeight="1">
+    <row r="136" ht="24" customHeight="1" spans="1:26">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4979,7 +5633,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" spans="1:26" ht="24" customHeight="1">
+    <row r="137" ht="24" customHeight="1" spans="1:26">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -5007,7 +5661,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="24" customHeight="1">
+    <row r="138" ht="24" customHeight="1" spans="1:26">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -5035,7 +5689,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="24" customHeight="1">
+    <row r="139" ht="24" customHeight="1" spans="1:26">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -5063,7 +5717,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" spans="1:26" ht="24" customHeight="1">
+    <row r="140" ht="24" customHeight="1" spans="1:26">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -5091,7 +5745,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="1:26" ht="24" customHeight="1">
+    <row r="141" ht="24" customHeight="1" spans="1:26">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -5119,7 +5773,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" spans="1:26" ht="24" customHeight="1">
+    <row r="142" ht="24" customHeight="1" spans="1:26">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -5147,7 +5801,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" spans="1:26" ht="24" customHeight="1">
+    <row r="143" ht="24" customHeight="1" spans="1:26">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -5175,7 +5829,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" spans="1:26" ht="24" customHeight="1">
+    <row r="144" ht="24" customHeight="1" spans="1:26">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -5203,7 +5857,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" spans="1:26" ht="24" customHeight="1">
+    <row r="145" ht="24" customHeight="1" spans="1:26">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -5231,7 +5885,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" spans="1:26" ht="24" customHeight="1">
+    <row r="146" ht="24" customHeight="1" spans="1:26">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -5259,7 +5913,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" spans="1:26" ht="24" customHeight="1">
+    <row r="147" ht="24" customHeight="1" spans="1:26">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -5287,7 +5941,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" spans="1:26" ht="24" customHeight="1">
+    <row r="148" ht="24" customHeight="1" spans="1:26">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -5315,7 +5969,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" spans="1:26" ht="24" customHeight="1">
+    <row r="149" ht="24" customHeight="1" spans="1:26">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -5343,7 +5997,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" spans="1:26" ht="24" customHeight="1">
+    <row r="150" ht="24" customHeight="1" spans="1:26">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -5371,7 +6025,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" spans="1:26" ht="24" customHeight="1">
+    <row r="151" ht="24" customHeight="1" spans="1:26">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -5399,7 +6053,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" spans="1:26" ht="24" customHeight="1">
+    <row r="152" ht="24" customHeight="1" spans="1:26">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -5427,7 +6081,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" spans="1:26" ht="24" customHeight="1">
+    <row r="153" ht="24" customHeight="1" spans="1:26">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -5455,7 +6109,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" spans="1:26" ht="24" customHeight="1">
+    <row r="154" ht="24" customHeight="1" spans="1:26">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -5483,7 +6137,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" spans="1:26" ht="24" customHeight="1">
+    <row r="155" ht="24" customHeight="1" spans="1:26">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -5511,7 +6165,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" spans="1:26" ht="24" customHeight="1">
+    <row r="156" ht="24" customHeight="1" spans="1:26">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -5539,7 +6193,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" spans="1:26" ht="24" customHeight="1">
+    <row r="157" ht="24" customHeight="1" spans="1:26">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -5567,7 +6221,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" spans="1:26" ht="24" customHeight="1">
+    <row r="158" ht="24" customHeight="1" spans="1:26">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -5595,7 +6249,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" spans="1:26" ht="24" customHeight="1">
+    <row r="159" ht="24" customHeight="1" spans="1:26">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -5623,7 +6277,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" spans="1:26" ht="24" customHeight="1">
+    <row r="160" ht="24" customHeight="1" spans="1:26">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -5651,7 +6305,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" spans="1:26" ht="24" customHeight="1">
+    <row r="161" ht="24" customHeight="1" spans="1:26">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -5679,7 +6333,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" spans="1:26" ht="24" customHeight="1">
+    <row r="162" ht="24" customHeight="1" spans="1:26">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -5707,7 +6361,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" spans="1:26" ht="24" customHeight="1">
+    <row r="163" ht="24" customHeight="1" spans="1:26">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5735,7 +6389,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" spans="1:26" ht="24" customHeight="1">
+    <row r="164" ht="24" customHeight="1" spans="1:26">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5763,7 +6417,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" spans="1:26" ht="24" customHeight="1">
+    <row r="165" ht="24" customHeight="1" spans="1:26">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5791,7 +6445,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" spans="1:26" ht="24" customHeight="1">
+    <row r="166" ht="24" customHeight="1" spans="1:26">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5819,7 +6473,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" spans="1:26" ht="24" customHeight="1">
+    <row r="167" ht="24" customHeight="1" spans="1:26">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5847,7 +6501,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" spans="1:26" ht="24" customHeight="1">
+    <row r="168" ht="24" customHeight="1" spans="1:26">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5875,7 +6529,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" spans="1:26" ht="24" customHeight="1">
+    <row r="169" ht="24" customHeight="1" spans="1:26">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5903,7 +6557,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" spans="1:26" ht="24" customHeight="1">
+    <row r="170" ht="24" customHeight="1" spans="1:26">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -5931,7 +6585,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" spans="1:26" ht="24" customHeight="1">
+    <row r="171" ht="24" customHeight="1" spans="1:26">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5959,7 +6613,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" spans="1:26" ht="24" customHeight="1">
+    <row r="172" ht="24" customHeight="1" spans="1:26">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -5987,7 +6641,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" spans="1:26" ht="24" customHeight="1">
+    <row r="173" ht="24" customHeight="1" spans="1:26">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6015,7 +6669,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" spans="1:26" ht="24" customHeight="1">
+    <row r="174" ht="24" customHeight="1" spans="1:26">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -6043,7 +6697,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" spans="1:26" ht="24" customHeight="1">
+    <row r="175" ht="24" customHeight="1" spans="1:26">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -6071,7 +6725,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" spans="1:26" ht="24" customHeight="1">
+    <row r="176" ht="24" customHeight="1" spans="1:26">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -6099,7 +6753,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" spans="1:26" ht="24" customHeight="1">
+    <row r="177" ht="24" customHeight="1" spans="1:26">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -6127,7 +6781,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" spans="1:26" ht="24" customHeight="1">
+    <row r="178" ht="24" customHeight="1" spans="1:26">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -6155,7 +6809,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" spans="1:26" ht="24" customHeight="1">
+    <row r="179" ht="24" customHeight="1" spans="1:26">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -6183,7 +6837,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" spans="1:26" ht="24" customHeight="1">
+    <row r="180" ht="24" customHeight="1" spans="1:26">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -6211,7 +6865,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" spans="1:26" ht="24" customHeight="1">
+    <row r="181" ht="24" customHeight="1" spans="1:26">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -6239,7 +6893,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" spans="1:26" ht="24" customHeight="1">
+    <row r="182" ht="24" customHeight="1" spans="1:26">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -6267,7 +6921,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" spans="1:26" ht="24" customHeight="1">
+    <row r="183" ht="24" customHeight="1" spans="1:26">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -6295,7 +6949,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" spans="1:26" ht="24" customHeight="1">
+    <row r="184" ht="24" customHeight="1" spans="1:26">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -6323,7 +6977,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" spans="1:26" ht="24" customHeight="1">
+    <row r="185" ht="24" customHeight="1" spans="1:26">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -6351,7 +7005,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" spans="1:26" ht="24" customHeight="1">
+    <row r="186" ht="24" customHeight="1" spans="1:26">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -6379,7 +7033,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" spans="1:26" ht="24" customHeight="1">
+    <row r="187" ht="24" customHeight="1" spans="1:26">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -6407,7 +7061,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" spans="1:26" ht="24" customHeight="1">
+    <row r="188" ht="24" customHeight="1" spans="1:26">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -6435,7 +7089,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" spans="1:26" ht="24" customHeight="1">
+    <row r="189" ht="24" customHeight="1" spans="1:26">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -6463,7 +7117,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" spans="1:26" ht="24" customHeight="1">
+    <row r="190" ht="24" customHeight="1" spans="1:26">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -6491,7 +7145,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" spans="1:26" ht="24" customHeight="1">
+    <row r="191" ht="24" customHeight="1" spans="1:26">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -6519,7 +7173,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" spans="1:26" ht="24" customHeight="1">
+    <row r="192" ht="24" customHeight="1" spans="1:26">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -6547,7 +7201,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" spans="1:26" ht="24" customHeight="1">
+    <row r="193" ht="24" customHeight="1" spans="1:26">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -6575,7 +7229,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" spans="1:26" ht="24" customHeight="1">
+    <row r="194" ht="24" customHeight="1" spans="1:26">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -6603,7 +7257,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" spans="1:26" ht="24" customHeight="1">
+    <row r="195" ht="24" customHeight="1" spans="1:26">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -6631,7 +7285,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" spans="1:26" ht="24" customHeight="1">
+    <row r="196" ht="24" customHeight="1" spans="1:26">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -6659,7 +7313,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" spans="1:26" ht="24" customHeight="1">
+    <row r="197" ht="24" customHeight="1" spans="1:26">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -6687,7 +7341,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" spans="1:26" ht="24" customHeight="1">
+    <row r="198" ht="24" customHeight="1" spans="1:26">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -6715,7 +7369,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" spans="1:26" ht="24" customHeight="1">
+    <row r="199" ht="24" customHeight="1" spans="1:26">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6743,7 +7397,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" spans="1:26" ht="24" customHeight="1">
+    <row r="200" ht="24" customHeight="1" spans="1:26">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6772,30 +7426,33 @@
       <c r="Z200" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" location="ORBIT_YAW_BEHAVIOUR) yawing so that it always faces towards the center." xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D10" r:id="rId2" location="MMAV_CMD_DO_ORBIT) MAVLink command." xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D32" r:id="rId3" location="MAV_CMD_DO_ORBIT) - Start an orbit with specified center point, radius, direction, altitude, speed and [yaw direction](https://mavlink.io/en/messages/common.html#ORBIT_YAW_BEHAVIOUR) (vehicle defaults to faceing centre of orbit)." xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D33" r:id="rId4" location="ORBIT_EXECUTION_STATUS) - Orbit status emitted during orbit to update GCS of current orbit parameters (these may be changed by the RC controller)." xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D2" r:id="rId1" location="ORBIT_YAW_BEHAVIOUR) yawing so that it always faces towards the center." display="The _Orbit_ guided flight mode allows you to command a multicopter (or VTOL in multicopter mode) to fly in a circle at a particular location, by [default](https://mavlink.io/en/messages/common.html#ORBIT_YAW_BEHAVIOUR) yawing so that it always faces towards the center."/>
+    <hyperlink ref="D10" r:id="rId2" location="MMAV_CMD_DO_ORBIT) MAVLink command." display="The mode can be triggered using the [MAV_CMD_DO_ORBIT](https://mavlink.io/en/messages/common.html#MMAV_CMD_DO_ORBIT) MAVLink command."/>
+    <hyperlink ref="D32" r:id="rId3" location="MAV_CMD_DO_ORBIT) - Start an orbit with specified center point, radius, direction, altitude, speed and [yaw direction](https://mavlink.io/en/messages/common.html#ORBIT_YAW_BEHAVIOUR) (vehicle defaults to faceing centre of orbit)." display="[MAV_CMD_DO_ORBIT](https://mavlink.io/en/messages/common.html#MAV_CMD_DO_ORBIT) - Start an orbit with specified center point, radius, direction, altitude, speed and [yaw direction](https://mavlink.io/en/messages/common.html#ORBIT_YAW_BEHAVIOUR) (vehicle defaults to faceing centre of orbit)."/>
+    <hyperlink ref="D33" r:id="rId4" location="ORBIT_EXECUTION_STATUS) - Orbit status emitted during orbit to update GCS of current orbit parameters (these may be changed by the RC controller)." display="[ORBIT_EXECUTION_STATUS](https://mavlink.io/en/messages/common.html#ORBIT_EXECUTION_STATUS) - Orbit status emitted during orbit to update GCS of current orbit parameters (these may be changed by the RC controller)."/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="26" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.75" customHeight="1">
+    <row r="1" ht="25.75" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6812,306 +7469,306 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="25.75" customHeight="1">
+    <row r="2" ht="25.75" customHeight="1" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="25.75" customHeight="1">
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" ht="25.75" customHeight="1" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="25.75" customHeight="1">
+    <row r="4" ht="25.75" customHeight="1" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.75" customHeight="1">
+    <row r="5" ht="25.75" customHeight="1" spans="1:4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="25.75" customHeight="1">
+    <row r="6" ht="25.75" customHeight="1" spans="1:4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>13</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="25.75" customHeight="1">
+    <row r="7" ht="25.75" customHeight="1" spans="1:4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>14</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="25.75" customHeight="1">
+    <row r="8" ht="25.75" customHeight="1" spans="1:5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>15</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="25.75" customHeight="1">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" ht="25.75" customHeight="1" spans="1:4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>16</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="25.75" customHeight="1">
+    <row r="10" ht="25.75" customHeight="1" spans="1:4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <v>17</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="25.75" customHeight="1">
+    <row r="11" ht="25.75" customHeight="1" spans="1:4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>27</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="25.75" customHeight="1">
+    <row r="12" ht="25.75" customHeight="1" spans="1:4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="6">
         <v>28</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="25.75" customHeight="1">
+    <row r="13" ht="25.75" customHeight="1" spans="1:4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="6">
         <v>34</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="25.75" customHeight="1">
+    <row r="14" ht="25.75" customHeight="1" spans="1:4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="6">
         <v>35</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="149.25" customHeight="1">
+    <row r="15" ht="149.25" customHeight="1" spans="1:4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>81</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="25.75" customHeight="1">
+    <row r="16" ht="25.75" customHeight="1" spans="1:4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="6">
         <v>53</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="25.75" customHeight="1">
+    <row r="17" ht="25.75" customHeight="1" spans="1:4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="6">
         <v>66</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="25.75" customHeight="1">
+    <row r="18" ht="25.75" customHeight="1" spans="1:4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="6">
         <v>67</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="24" customHeight="1">
+    <row r="19" ht="24" customHeight="1" spans="1:1">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="24" customHeight="1">
+    <row r="20" ht="24" customHeight="1" spans="1:1">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="24" customHeight="1">
+    <row r="21" ht="24" customHeight="1" spans="1:1">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="24" customHeight="1">
+    <row r="22" ht="24" customHeight="1" spans="1:1">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="24" customHeight="1">
+    <row r="23" ht="24" customHeight="1" spans="1:1">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="24" customHeight="1">
+    <row r="24" ht="24" customHeight="1" spans="1:1">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="24" customHeight="1">
+    <row r="25" ht="24" customHeight="1" spans="1:1">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="24" customHeight="1">
+    <row r="26" ht="24" customHeight="1" spans="1:1">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="24" customHeight="1">
+    <row r="27" ht="24" customHeight="1" spans="1:1">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="24" customHeight="1">
+    <row r="28" ht="24" customHeight="1" spans="1:1">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="24" customHeight="1">
+    <row r="29" ht="24" customHeight="1" spans="1:1">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="24" customHeight="1">
+    <row r="30" ht="24" customHeight="1" spans="1:1">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="24" customHeight="1">
+    <row r="31" ht="24" customHeight="1" spans="1:1">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="24" customHeight="1">
+    <row r="32" ht="24" customHeight="1" spans="1:1">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1" ht="24" customHeight="1">
+    <row r="33" ht="24" customHeight="1" spans="1:1">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" ht="24" customHeight="1"/>
-    <row r="35" spans="1:1" ht="24" customHeight="1"/>
-    <row r="36" spans="1:1" ht="24" customHeight="1"/>
-    <row r="37" spans="1:1" ht="24" customHeight="1"/>
-    <row r="38" spans="1:1" ht="24" customHeight="1"/>
-    <row r="39" spans="1:1" ht="24" customHeight="1"/>
-    <row r="40" spans="1:1" ht="24" customHeight="1"/>
-    <row r="41" spans="1:1" ht="24" customHeight="1"/>
-    <row r="42" spans="1:1" ht="24" customHeight="1"/>
-    <row r="43" spans="1:1" ht="24" customHeight="1"/>
-    <row r="44" spans="1:1" ht="24" customHeight="1"/>
-    <row r="45" spans="1:1" ht="24" customHeight="1"/>
-    <row r="46" spans="1:1" ht="24" customHeight="1"/>
-    <row r="47" spans="1:1" ht="24" customHeight="1"/>
-    <row r="48" spans="1:1" ht="24" customHeight="1"/>
+    <row r="34" ht="24" customHeight="1"/>
+    <row r="35" ht="24" customHeight="1"/>
+    <row r="36" ht="24" customHeight="1"/>
+    <row r="37" ht="24" customHeight="1"/>
+    <row r="38" ht="24" customHeight="1"/>
+    <row r="39" ht="24" customHeight="1"/>
+    <row r="40" ht="24" customHeight="1"/>
+    <row r="41" ht="24" customHeight="1"/>
+    <row r="42" ht="24" customHeight="1"/>
+    <row r="43" ht="24" customHeight="1"/>
+    <row r="44" ht="24" customHeight="1"/>
+    <row r="45" ht="24" customHeight="1"/>
+    <row r="46" ht="24" customHeight="1"/>
+    <row r="47" ht="24" customHeight="1"/>
+    <row r="48" ht="24" customHeight="1"/>
     <row r="49" ht="24" customHeight="1"/>
     <row r="50" ht="24" customHeight="1"/>
     <row r="51" ht="24" customHeight="1"/>
@@ -7265,31 +7922,34 @@
     <row r="199" ht="24" customHeight="1"/>
     <row r="200" ht="24" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" location="MMAV_CMD_DO_ORBIT) MAVLink command." xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D10" r:id="rId1" location="MMAV_CMD_DO_ORBIT) MAVLink command." display="- The mode can be triggered using the [MAV_CMD_DO_ORBIT](https://mavlink.io/en/messages/common.html#MMAV_CMD_DO_ORBIT) MAVLink command."/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.83653846153846" customWidth="1"/>
+    <col min="2" max="2" width="17.3365384615385" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="70.83203125" customWidth="1"/>
+    <col min="4" max="4" width="70.8365384615385" customWidth="1"/>
     <col min="5" max="26" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="25.75" customHeight="1">
+    <row r="1" ht="25.75" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7327,7 +7987,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="66.75" customHeight="1">
+    <row r="2" ht="66.75" customHeight="1" spans="1:26">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7337,7 +7997,7 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1"/>
@@ -7363,17 +8023,17 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="39.5" customHeight="1">
+    <row r="3" ht="39.5" customHeight="1" spans="1:26">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1"/>
@@ -7399,11 +8059,11 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="39.5" customHeight="1">
+    <row r="4" ht="39.5" customHeight="1" spans="1:26">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -7435,11 +8095,11 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="39.5" customHeight="1">
+    <row r="5" ht="39.5" customHeight="1" spans="1:26">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -7471,11 +8131,11 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="39.5" customHeight="1">
+    <row r="6" ht="39.5" customHeight="1" spans="1:26">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -7507,11 +8167,11 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="39.5" customHeight="1">
+    <row r="7" ht="39.5" customHeight="1" spans="1:26">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -7543,11 +8203,11 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="39.5" customHeight="1">
+    <row r="8" ht="39.5" customHeight="1" spans="1:26">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -7579,11 +8239,11 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="39.5" customHeight="1">
+    <row r="9" ht="39.5" customHeight="1" spans="1:26">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -7615,17 +8275,17 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="53.25" customHeight="1">
+    <row r="10" ht="53.25" customHeight="1" spans="1:26">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="1"/>
@@ -7651,7 +8311,7 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="53.25" customHeight="1">
+    <row r="11" ht="53.25" customHeight="1" spans="1:26">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7687,11 +8347,11 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="53.25" customHeight="1">
+    <row r="12" ht="53.25" customHeight="1" spans="1:26">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -7723,11 +8383,11 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="39.5" customHeight="1">
+    <row r="13" ht="39.5" customHeight="1" spans="1:26">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -7759,11 +8419,11 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="39.5" customHeight="1">
+    <row r="14" ht="39.5" customHeight="1" spans="1:26">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -7795,11 +8455,11 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="39.5" customHeight="1">
+    <row r="15" ht="39.5" customHeight="1" spans="1:26">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -7831,11 +8491,11 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="39.5" customHeight="1">
+    <row r="16" ht="39.5" customHeight="1" spans="1:26">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -7867,11 +8527,11 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="39.5" customHeight="1">
+    <row r="17" ht="39.5" customHeight="1" spans="1:26">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -7903,11 +8563,11 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="39.5" customHeight="1">
+    <row r="18" ht="39.5" customHeight="1" spans="1:26">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -7939,11 +8599,11 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="39.5" customHeight="1">
+    <row r="19" ht="39.5" customHeight="1" spans="1:26">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -7975,11 +8635,11 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="39.5" customHeight="1">
+    <row r="20" ht="39.5" customHeight="1" spans="1:26">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -8011,11 +8671,11 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="39.5" customHeight="1">
+    <row r="21" ht="39.5" customHeight="1" spans="1:26">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -8047,11 +8707,11 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="39.5" customHeight="1">
+    <row r="22" ht="39.5" customHeight="1" spans="1:26">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -8083,11 +8743,11 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="39.5" customHeight="1">
+    <row r="23" ht="39.5" customHeight="1" spans="1:26">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -8119,11 +8779,11 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="39.5" customHeight="1">
+    <row r="24" ht="39.5" customHeight="1" spans="1:26">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -8155,11 +8815,11 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="39.5" customHeight="1">
+    <row r="25" ht="39.5" customHeight="1" spans="1:26">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -8191,11 +8851,11 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="25.75" customHeight="1">
+    <row r="26" ht="25.75" customHeight="1" spans="1:26">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -8227,11 +8887,11 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="25.75" customHeight="1">
+    <row r="27" ht="25.75" customHeight="1" spans="1:26">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -8263,11 +8923,11 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="39.5" customHeight="1">
+    <row r="28" ht="39.5" customHeight="1" spans="1:26">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -8299,11 +8959,11 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="25.75" customHeight="1">
+    <row r="29" ht="25.75" customHeight="1" spans="1:26">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -8335,11 +8995,11 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="39.5" customHeight="1">
+    <row r="30" ht="39.5" customHeight="1" spans="1:26">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -8371,11 +9031,11 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="66.75" customHeight="1">
+    <row r="31" ht="66.75" customHeight="1" spans="1:26">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -8407,17 +9067,17 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="80.5" customHeight="1">
+    <row r="32" ht="80.5" customHeight="1" spans="1:26">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E32" s="1"/>
@@ -8443,9 +9103,9 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="24" customHeight="1">
+    <row r="33" ht="24" customHeight="1" spans="1:26">
       <c r="A33" s="1"/>
-      <c r="B33" s="3"/>
+      <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -8471,7 +9131,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="24" customHeight="1">
+    <row r="34" ht="24" customHeight="1" spans="1:26">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -8499,7 +9159,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="24" customHeight="1">
+    <row r="35" ht="24" customHeight="1" spans="1:26">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -8527,7 +9187,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="24" customHeight="1">
+    <row r="36" ht="24" customHeight="1" spans="1:26">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -8555,7 +9215,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="24" customHeight="1">
+    <row r="37" ht="24" customHeight="1" spans="1:26">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -8583,7 +9243,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="24" customHeight="1">
+    <row r="38" ht="24" customHeight="1" spans="1:26">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -8611,7 +9271,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="24" customHeight="1">
+    <row r="39" ht="24" customHeight="1" spans="1:26">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -8639,7 +9299,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="24" customHeight="1">
+    <row r="40" ht="24" customHeight="1" spans="1:26">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -8667,7 +9327,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="24" customHeight="1">
+    <row r="41" ht="24" customHeight="1" spans="1:26">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -8695,7 +9355,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="24" customHeight="1">
+    <row r="42" ht="24" customHeight="1" spans="1:26">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -8723,7 +9383,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="24" customHeight="1">
+    <row r="43" ht="24" customHeight="1" spans="1:26">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -8751,7 +9411,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="24" customHeight="1">
+    <row r="44" ht="24" customHeight="1" spans="1:26">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -8779,7 +9439,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="24" customHeight="1">
+    <row r="45" ht="24" customHeight="1" spans="1:26">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -8807,7 +9467,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="24" customHeight="1">
+    <row r="46" ht="24" customHeight="1" spans="1:26">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -8835,7 +9495,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="24" customHeight="1">
+    <row r="47" ht="24" customHeight="1" spans="1:26">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -8863,7 +9523,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="24" customHeight="1">
+    <row r="48" ht="24" customHeight="1" spans="1:26">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -8891,7 +9551,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="24" customHeight="1">
+    <row r="49" ht="24" customHeight="1" spans="1:26">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -8919,7 +9579,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="24" customHeight="1">
+    <row r="50" ht="24" customHeight="1" spans="1:26">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -8947,7 +9607,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="24" customHeight="1">
+    <row r="51" ht="24" customHeight="1" spans="1:26">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -8975,7 +9635,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="24" customHeight="1">
+    <row r="52" ht="24" customHeight="1" spans="1:26">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -9003,7 +9663,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="24" customHeight="1">
+    <row r="53" ht="24" customHeight="1" spans="1:26">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -9031,7 +9691,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="24" customHeight="1">
+    <row r="54" ht="24" customHeight="1" spans="1:26">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -9059,7 +9719,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="24" customHeight="1">
+    <row r="55" ht="24" customHeight="1" spans="1:26">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -9087,7 +9747,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="24" customHeight="1">
+    <row r="56" ht="24" customHeight="1" spans="1:26">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -9115,7 +9775,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="24" customHeight="1">
+    <row r="57" ht="24" customHeight="1" spans="1:26">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -9143,7 +9803,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="24" customHeight="1">
+    <row r="58" ht="24" customHeight="1" spans="1:26">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -9171,7 +9831,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" ht="24" customHeight="1">
+    <row r="59" ht="24" customHeight="1" spans="1:26">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -9199,7 +9859,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="24" customHeight="1">
+    <row r="60" ht="24" customHeight="1" spans="1:26">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -9227,7 +9887,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="24" customHeight="1">
+    <row r="61" ht="24" customHeight="1" spans="1:26">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -9255,7 +9915,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="24" customHeight="1">
+    <row r="62" ht="24" customHeight="1" spans="1:26">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -9283,7 +9943,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" ht="24" customHeight="1">
+    <row r="63" ht="24" customHeight="1" spans="1:26">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -9311,7 +9971,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="24" customHeight="1">
+    <row r="64" ht="24" customHeight="1" spans="1:26">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -9339,7 +9999,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" ht="24" customHeight="1">
+    <row r="65" ht="24" customHeight="1" spans="1:26">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -9367,7 +10027,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" ht="24" customHeight="1">
+    <row r="66" ht="24" customHeight="1" spans="1:26">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -9395,7 +10055,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="24" customHeight="1">
+    <row r="67" ht="24" customHeight="1" spans="1:26">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -9423,7 +10083,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="24" customHeight="1">
+    <row r="68" ht="24" customHeight="1" spans="1:26">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -9451,7 +10111,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="24" customHeight="1">
+    <row r="69" ht="24" customHeight="1" spans="1:26">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -9479,7 +10139,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" ht="24" customHeight="1">
+    <row r="70" ht="24" customHeight="1" spans="1:26">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -9507,7 +10167,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" ht="24" customHeight="1">
+    <row r="71" ht="24" customHeight="1" spans="1:26">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -9535,7 +10195,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="24" customHeight="1">
+    <row r="72" ht="24" customHeight="1" spans="1:26">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -9563,7 +10223,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" ht="24" customHeight="1">
+    <row r="73" ht="24" customHeight="1" spans="1:26">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -9591,7 +10251,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="24" customHeight="1">
+    <row r="74" ht="24" customHeight="1" spans="1:26">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -9619,7 +10279,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="24" customHeight="1">
+    <row r="75" ht="24" customHeight="1" spans="1:26">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -9647,7 +10307,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" ht="24" customHeight="1">
+    <row r="76" ht="24" customHeight="1" spans="1:26">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -9675,7 +10335,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" ht="24" customHeight="1">
+    <row r="77" ht="24" customHeight="1" spans="1:26">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -9703,7 +10363,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="24" customHeight="1">
+    <row r="78" ht="24" customHeight="1" spans="1:26">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -9731,7 +10391,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" ht="24" customHeight="1">
+    <row r="79" ht="24" customHeight="1" spans="1:26">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -9759,7 +10419,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" ht="24" customHeight="1">
+    <row r="80" ht="24" customHeight="1" spans="1:26">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -9787,7 +10447,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" ht="24" customHeight="1">
+    <row r="81" ht="24" customHeight="1" spans="1:26">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -9815,7 +10475,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" ht="24" customHeight="1">
+    <row r="82" ht="24" customHeight="1" spans="1:26">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -9843,7 +10503,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" ht="24" customHeight="1">
+    <row r="83" ht="24" customHeight="1" spans="1:26">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -9871,7 +10531,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" ht="24" customHeight="1">
+    <row r="84" ht="24" customHeight="1" spans="1:26">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -9899,7 +10559,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" ht="24" customHeight="1">
+    <row r="85" ht="24" customHeight="1" spans="1:26">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -9927,7 +10587,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" ht="24" customHeight="1">
+    <row r="86" ht="24" customHeight="1" spans="1:26">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -9955,7 +10615,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" ht="24" customHeight="1">
+    <row r="87" ht="24" customHeight="1" spans="1:26">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -9983,7 +10643,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" ht="24" customHeight="1">
+    <row r="88" ht="24" customHeight="1" spans="1:26">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -10011,7 +10671,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" ht="24" customHeight="1">
+    <row r="89" ht="24" customHeight="1" spans="1:26">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -10039,7 +10699,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="24" customHeight="1">
+    <row r="90" ht="24" customHeight="1" spans="1:26">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -10067,7 +10727,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="24" customHeight="1">
+    <row r="91" ht="24" customHeight="1" spans="1:26">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -10095,7 +10755,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" ht="24" customHeight="1">
+    <row r="92" ht="24" customHeight="1" spans="1:26">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -10123,7 +10783,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" ht="24" customHeight="1">
+    <row r="93" ht="24" customHeight="1" spans="1:26">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -10151,7 +10811,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="24" customHeight="1">
+    <row r="94" ht="24" customHeight="1" spans="1:26">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -10179,7 +10839,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="24" customHeight="1">
+    <row r="95" ht="24" customHeight="1" spans="1:26">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -10207,7 +10867,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" ht="24" customHeight="1">
+    <row r="96" ht="24" customHeight="1" spans="1:26">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -10235,7 +10895,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" ht="24" customHeight="1">
+    <row r="97" ht="24" customHeight="1" spans="1:26">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -10263,7 +10923,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" ht="24" customHeight="1">
+    <row r="98" ht="24" customHeight="1" spans="1:26">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -10291,7 +10951,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" ht="24" customHeight="1">
+    <row r="99" ht="24" customHeight="1" spans="1:26">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -10319,7 +10979,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" ht="24" customHeight="1">
+    <row r="100" ht="24" customHeight="1" spans="1:26">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -10347,7 +11007,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26" ht="24" customHeight="1">
+    <row r="101" ht="24" customHeight="1" spans="1:26">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -10375,7 +11035,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:26" ht="24" customHeight="1">
+    <row r="102" ht="24" customHeight="1" spans="1:26">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -10403,7 +11063,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" spans="1:26" ht="24" customHeight="1">
+    <row r="103" ht="24" customHeight="1" spans="1:26">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -10431,7 +11091,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" spans="1:26" ht="24" customHeight="1">
+    <row r="104" ht="24" customHeight="1" spans="1:26">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -10459,7 +11119,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" ht="24" customHeight="1">
+    <row r="105" ht="24" customHeight="1" spans="1:26">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -10487,7 +11147,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:26" ht="24" customHeight="1">
+    <row r="106" ht="24" customHeight="1" spans="1:26">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -10515,7 +11175,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" ht="24" customHeight="1">
+    <row r="107" ht="24" customHeight="1" spans="1:26">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -10543,7 +11203,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26" ht="24" customHeight="1">
+    <row r="108" ht="24" customHeight="1" spans="1:26">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -10571,7 +11231,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" spans="1:26" ht="24" customHeight="1">
+    <row r="109" ht="24" customHeight="1" spans="1:26">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -10599,7 +11259,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" spans="1:26" ht="24" customHeight="1">
+    <row r="110" ht="24" customHeight="1" spans="1:26">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -10627,7 +11287,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" spans="1:26" ht="24" customHeight="1">
+    <row r="111" ht="24" customHeight="1" spans="1:26">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -10655,7 +11315,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26" ht="24" customHeight="1">
+    <row r="112" ht="24" customHeight="1" spans="1:26">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -10683,7 +11343,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" spans="1:26" ht="24" customHeight="1">
+    <row r="113" ht="24" customHeight="1" spans="1:26">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -10711,7 +11371,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" spans="1:26" ht="24" customHeight="1">
+    <row r="114" ht="24" customHeight="1" spans="1:26">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -10739,7 +11399,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" spans="1:26" ht="24" customHeight="1">
+    <row r="115" ht="24" customHeight="1" spans="1:26">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -10767,7 +11427,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" spans="1:26" ht="24" customHeight="1">
+    <row r="116" ht="24" customHeight="1" spans="1:26">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -10795,7 +11455,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26" ht="24" customHeight="1">
+    <row r="117" ht="24" customHeight="1" spans="1:26">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -10823,7 +11483,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:26" ht="24" customHeight="1">
+    <row r="118" ht="24" customHeight="1" spans="1:26">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -10851,7 +11511,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" spans="1:26" ht="24" customHeight="1">
+    <row r="119" ht="24" customHeight="1" spans="1:26">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -10879,7 +11539,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" spans="1:26" ht="24" customHeight="1">
+    <row r="120" ht="24" customHeight="1" spans="1:26">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -10907,7 +11567,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26" ht="24" customHeight="1">
+    <row r="121" ht="24" customHeight="1" spans="1:26">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -10935,7 +11595,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26" ht="24" customHeight="1">
+    <row r="122" ht="24" customHeight="1" spans="1:26">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -10963,7 +11623,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" spans="1:26" ht="24" customHeight="1">
+    <row r="123" ht="24" customHeight="1" spans="1:26">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -10991,7 +11651,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" spans="1:26" ht="24" customHeight="1">
+    <row r="124" ht="24" customHeight="1" spans="1:26">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -11019,7 +11679,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" spans="1:26" ht="24" customHeight="1">
+    <row r="125" ht="24" customHeight="1" spans="1:26">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -11047,7 +11707,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" spans="1:26" ht="24" customHeight="1">
+    <row r="126" ht="24" customHeight="1" spans="1:26">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -11075,7 +11735,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" ht="24" customHeight="1">
+    <row r="127" ht="24" customHeight="1" spans="1:26">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -11103,7 +11763,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26" ht="24" customHeight="1">
+    <row r="128" ht="24" customHeight="1" spans="1:26">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -11131,7 +11791,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:26" ht="24" customHeight="1">
+    <row r="129" ht="24" customHeight="1" spans="1:26">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -11159,7 +11819,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" spans="1:26" ht="24" customHeight="1">
+    <row r="130" ht="24" customHeight="1" spans="1:26">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -11187,7 +11847,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26" ht="24" customHeight="1">
+    <row r="131" ht="24" customHeight="1" spans="1:26">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -11215,7 +11875,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" spans="1:26" ht="24" customHeight="1">
+    <row r="132" ht="24" customHeight="1" spans="1:26">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -11243,7 +11903,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" spans="1:26" ht="24" customHeight="1">
+    <row r="133" ht="24" customHeight="1" spans="1:26">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -11271,7 +11931,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="24" customHeight="1">
+    <row r="134" ht="24" customHeight="1" spans="1:26">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -11299,7 +11959,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" ht="24" customHeight="1">
+    <row r="135" ht="24" customHeight="1" spans="1:26">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -11327,7 +11987,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" spans="1:26" ht="24" customHeight="1">
+    <row r="136" ht="24" customHeight="1" spans="1:26">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -11355,7 +12015,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" spans="1:26" ht="24" customHeight="1">
+    <row r="137" ht="24" customHeight="1" spans="1:26">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -11383,7 +12043,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="24" customHeight="1">
+    <row r="138" ht="24" customHeight="1" spans="1:26">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -11411,7 +12071,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="24" customHeight="1">
+    <row r="139" ht="24" customHeight="1" spans="1:26">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -11439,7 +12099,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" spans="1:26" ht="24" customHeight="1">
+    <row r="140" ht="24" customHeight="1" spans="1:26">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -11467,7 +12127,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="1:26" ht="24" customHeight="1">
+    <row r="141" ht="24" customHeight="1" spans="1:26">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -11495,7 +12155,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" spans="1:26" ht="24" customHeight="1">
+    <row r="142" ht="24" customHeight="1" spans="1:26">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -11523,7 +12183,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" spans="1:26" ht="24" customHeight="1">
+    <row r="143" ht="24" customHeight="1" spans="1:26">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -11551,7 +12211,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" spans="1:26" ht="24" customHeight="1">
+    <row r="144" ht="24" customHeight="1" spans="1:26">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -11579,7 +12239,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" spans="1:26" ht="24" customHeight="1">
+    <row r="145" ht="24" customHeight="1" spans="1:26">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -11607,7 +12267,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" spans="1:26" ht="24" customHeight="1">
+    <row r="146" ht="24" customHeight="1" spans="1:26">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -11635,7 +12295,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" spans="1:26" ht="24" customHeight="1">
+    <row r="147" ht="24" customHeight="1" spans="1:26">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -11663,7 +12323,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" spans="1:26" ht="24" customHeight="1">
+    <row r="148" ht="24" customHeight="1" spans="1:26">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -11691,7 +12351,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" spans="1:26" ht="24" customHeight="1">
+    <row r="149" ht="24" customHeight="1" spans="1:26">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -11719,7 +12379,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" spans="1:26" ht="24" customHeight="1">
+    <row r="150" ht="24" customHeight="1" spans="1:26">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -11747,7 +12407,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" spans="1:26" ht="24" customHeight="1">
+    <row r="151" ht="24" customHeight="1" spans="1:26">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -11775,7 +12435,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" spans="1:26" ht="24" customHeight="1">
+    <row r="152" ht="24" customHeight="1" spans="1:26">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -11803,7 +12463,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" spans="1:26" ht="24" customHeight="1">
+    <row r="153" ht="24" customHeight="1" spans="1:26">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -11831,7 +12491,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" spans="1:26" ht="24" customHeight="1">
+    <row r="154" ht="24" customHeight="1" spans="1:26">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -11859,7 +12519,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" spans="1:26" ht="24" customHeight="1">
+    <row r="155" ht="24" customHeight="1" spans="1:26">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -11887,7 +12547,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" spans="1:26" ht="24" customHeight="1">
+    <row r="156" ht="24" customHeight="1" spans="1:26">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -11915,7 +12575,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" spans="1:26" ht="24" customHeight="1">
+    <row r="157" ht="24" customHeight="1" spans="1:26">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -11943,7 +12603,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" spans="1:26" ht="24" customHeight="1">
+    <row r="158" ht="24" customHeight="1" spans="1:26">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -11971,7 +12631,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" spans="1:26" ht="24" customHeight="1">
+    <row r="159" ht="24" customHeight="1" spans="1:26">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -11999,7 +12659,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" spans="1:26" ht="24" customHeight="1">
+    <row r="160" ht="24" customHeight="1" spans="1:26">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -12027,7 +12687,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" spans="1:26" ht="24" customHeight="1">
+    <row r="161" ht="24" customHeight="1" spans="1:26">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -12055,7 +12715,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" spans="1:26" ht="24" customHeight="1">
+    <row r="162" ht="24" customHeight="1" spans="1:26">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -12083,7 +12743,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" spans="1:26" ht="24" customHeight="1">
+    <row r="163" ht="24" customHeight="1" spans="1:26">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -12111,7 +12771,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" spans="1:26" ht="24" customHeight="1">
+    <row r="164" ht="24" customHeight="1" spans="1:26">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -12139,7 +12799,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" spans="1:26" ht="24" customHeight="1">
+    <row r="165" ht="24" customHeight="1" spans="1:26">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -12167,7 +12827,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" spans="1:26" ht="24" customHeight="1">
+    <row r="166" ht="24" customHeight="1" spans="1:26">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -12195,7 +12855,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" spans="1:26" ht="24" customHeight="1">
+    <row r="167" ht="24" customHeight="1" spans="1:26">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -12223,7 +12883,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" spans="1:26" ht="24" customHeight="1">
+    <row r="168" ht="24" customHeight="1" spans="1:26">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -12251,7 +12911,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" spans="1:26" ht="24" customHeight="1">
+    <row r="169" ht="24" customHeight="1" spans="1:26">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -12279,7 +12939,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" spans="1:26" ht="24" customHeight="1">
+    <row r="170" ht="24" customHeight="1" spans="1:26">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -12307,7 +12967,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" spans="1:26" ht="24" customHeight="1">
+    <row r="171" ht="24" customHeight="1" spans="1:26">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -12335,7 +12995,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" spans="1:26" ht="24" customHeight="1">
+    <row r="172" ht="24" customHeight="1" spans="1:26">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -12363,7 +13023,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" spans="1:26" ht="24" customHeight="1">
+    <row r="173" ht="24" customHeight="1" spans="1:26">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -12391,7 +13051,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" spans="1:26" ht="24" customHeight="1">
+    <row r="174" ht="24" customHeight="1" spans="1:26">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -12419,7 +13079,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" spans="1:26" ht="24" customHeight="1">
+    <row r="175" ht="24" customHeight="1" spans="1:26">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -12447,7 +13107,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" spans="1:26" ht="24" customHeight="1">
+    <row r="176" ht="24" customHeight="1" spans="1:26">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -12475,7 +13135,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" spans="1:26" ht="24" customHeight="1">
+    <row r="177" ht="24" customHeight="1" spans="1:26">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -12503,7 +13163,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" spans="1:26" ht="24" customHeight="1">
+    <row r="178" ht="24" customHeight="1" spans="1:26">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -12531,7 +13191,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" spans="1:26" ht="24" customHeight="1">
+    <row r="179" ht="24" customHeight="1" spans="1:26">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -12559,7 +13219,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" spans="1:26" ht="24" customHeight="1">
+    <row r="180" ht="24" customHeight="1" spans="1:26">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -12587,7 +13247,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" spans="1:26" ht="24" customHeight="1">
+    <row r="181" ht="24" customHeight="1" spans="1:26">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -12615,7 +13275,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" spans="1:26" ht="24" customHeight="1">
+    <row r="182" ht="24" customHeight="1" spans="1:26">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -12643,7 +13303,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" spans="1:26" ht="24" customHeight="1">
+    <row r="183" ht="24" customHeight="1" spans="1:26">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -12671,7 +13331,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" spans="1:26" ht="24" customHeight="1">
+    <row r="184" ht="24" customHeight="1" spans="1:26">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -12699,7 +13359,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" spans="1:26" ht="24" customHeight="1">
+    <row r="185" ht="24" customHeight="1" spans="1:26">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -12727,7 +13387,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" spans="1:26" ht="24" customHeight="1">
+    <row r="186" ht="24" customHeight="1" spans="1:26">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -12755,7 +13415,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" spans="1:26" ht="24" customHeight="1">
+    <row r="187" ht="24" customHeight="1" spans="1:26">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -12783,7 +13443,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" spans="1:26" ht="24" customHeight="1">
+    <row r="188" ht="24" customHeight="1" spans="1:26">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -12811,7 +13471,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" spans="1:26" ht="24" customHeight="1">
+    <row r="189" ht="24" customHeight="1" spans="1:26">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -12839,7 +13499,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" spans="1:26" ht="24" customHeight="1">
+    <row r="190" ht="24" customHeight="1" spans="1:26">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -12867,7 +13527,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" spans="1:26" ht="24" customHeight="1">
+    <row r="191" ht="24" customHeight="1" spans="1:26">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -12895,7 +13555,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" spans="1:26" ht="24" customHeight="1">
+    <row r="192" ht="24" customHeight="1" spans="1:26">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -12923,7 +13583,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" spans="1:26" ht="24" customHeight="1">
+    <row r="193" ht="24" customHeight="1" spans="1:26">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -12951,7 +13611,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" spans="1:26" ht="24" customHeight="1">
+    <row r="194" ht="24" customHeight="1" spans="1:26">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -12979,7 +13639,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" spans="1:26" ht="24" customHeight="1">
+    <row r="195" ht="24" customHeight="1" spans="1:26">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -13007,7 +13667,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" spans="1:26" ht="24" customHeight="1">
+    <row r="196" ht="24" customHeight="1" spans="1:26">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -13035,7 +13695,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" spans="1:26" ht="24" customHeight="1">
+    <row r="197" ht="24" customHeight="1" spans="1:26">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -13063,7 +13723,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" spans="1:26" ht="24" customHeight="1">
+    <row r="198" ht="24" customHeight="1" spans="1:26">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -13091,7 +13751,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" spans="1:26" ht="24" customHeight="1">
+    <row r="199" ht="24" customHeight="1" spans="1:26">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -13119,7 +13779,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" spans="1:26" ht="24" customHeight="1">
+    <row r="200" ht="24" customHeight="1" spans="1:26">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -13148,35 +13808,36 @@
       <c r="Z200" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" location="ORBIT_YAW_BEHAVIOUR) yawing so that it always faces towards the center." xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D10" r:id="rId2" location="MMAV_CMD_DO_ORBIT) MAVLink command." xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="D32" r:id="rId3" location="MAV_CMD_DO_ORBIT) - Start an orbit with specified center point, radius, direction, altitude, speed and [yaw direction](https://mavlink.io/en/messages/common.html#ORBIT_YAW_BEHAVIOUR) (vehicle defaults to faceing centre of orbit)." xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="D2" r:id="rId1" location="ORBIT_YAW_BEHAVIOUR) yawing so that it always faces towards the center." display="The _Orbit_ guided flight mode allows you to command a multicopter (or VTOL in multicopter mode) to fly in a circle at a particular location, by [default](https://mavlink.io/en/messages/common.html#ORBIT_YAW_BEHAVIOUR) yawing so that it always faces towards the center."/>
+    <hyperlink ref="D10" r:id="rId2" location="MMAV_CMD_DO_ORBIT) MAVLink command." display="The mode can be triggered using the [MAV_CMD_DO_ORBIT](https://mavlink.io/en/messages/common.html#MMAV_CMD_DO_ORBIT) MAVLink command."/>
+    <hyperlink ref="D32" r:id="rId3" location="MAV_CMD_DO_ORBIT) - Start an orbit with specified center point, radius, direction, altitude, speed and [yaw direction](https://mavlink.io/en/messages/common.html#ORBIT_YAW_BEHAVIOUR) (vehicle defaults to faceing centre of orbit)." display="[MAV_CMD_DO_ORBIT](https://mavlink.io/en/messages/common.html#MAV_CMD_DO_ORBIT) - Start an orbit with specified center point, radius, direction, altitude, speed and [yaw direction](https://mavlink.io/en/messages/common.html#ORBIT_YAW_BEHAVIOUR) (vehicle defaults to faceing centre of orbit)."/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F196"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="74.5" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.1634615384615" customWidth="1"/>
+    <col min="6" max="6" width="35.6634615384615" customWidth="1"/>
     <col min="7" max="26" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.75" customHeight="1">
+    <row r="1" ht="25.75" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13190,13 +13851,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="94.25" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" ht="94.25" customHeight="1" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -13206,41 +13867,41 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>142</v>
+      <c r="D2" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="80.5" customHeight="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" ht="80.5" customHeight="1" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="94.25" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" ht="94.25" customHeight="1" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -13250,17 +13911,17 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="80.5" customHeight="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" ht="80.5" customHeight="1" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -13270,17 +13931,17 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="108" customHeight="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" ht="108" customHeight="1" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -13290,17 +13951,17 @@
         <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="80.5" customHeight="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" ht="80.5" customHeight="1" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -13310,17 +13971,17 @@
         <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="108" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" ht="108" customHeight="1" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -13330,17 +13991,17 @@
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="121.75" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" ht="121.75" customHeight="1" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -13350,33 +14011,33 @@
         <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="108" customHeight="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" ht="108" customHeight="1" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="108" customHeight="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" ht="108" customHeight="1" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -13390,17 +14051,17 @@
         <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="135.5" customHeight="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" ht="135.5" customHeight="1" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -13410,17 +14071,17 @@
         <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="121.75" customHeight="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" ht="121.75" customHeight="1" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -13430,17 +14091,17 @@
         <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="94.25" customHeight="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" ht="94.25" customHeight="1" spans="1:6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -13450,17 +14111,17 @@
         <v>32</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="121.75" customHeight="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" ht="121.75" customHeight="1" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -13470,17 +14131,17 @@
         <v>34</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="121.75" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" ht="121.75" customHeight="1" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -13490,930 +14151,962 @@
         <v>36</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="108" customHeight="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" ht="108" customHeight="1" spans="1:6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="149.25" customHeight="1">
+      <c r="D17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" ht="108" customHeight="1" spans="1:6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="108" customHeight="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" ht="149.25" customHeight="1" spans="1:6">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="108" customHeight="1">
+        <v>43</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" ht="149.25" customHeight="1" spans="1:6">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>18</v>
+      <c r="B20" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="108" customHeight="1">
+    </row>
+    <row r="21" ht="108" customHeight="1" spans="1:6">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="108" customHeight="1">
+    </row>
+    <row r="22" ht="108" customHeight="1" spans="1:6">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>4</v>
+      <c r="B22" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="53.25" customHeight="1">
+    </row>
+    <row r="23" ht="108" customHeight="1" spans="1:6">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>18</v>
+      <c r="B23" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="66.75" customHeight="1">
+    </row>
+    <row r="24" ht="108" customHeight="1" spans="1:6">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>18</v>
+      <c r="B24" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="94.25" customHeight="1">
+    </row>
+    <row r="25" ht="53.25" customHeight="1" spans="1:6">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>4</v>
+      <c r="B25" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="94.25" customHeight="1">
+    </row>
+    <row r="26" ht="66.75" customHeight="1" spans="1:6">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>4</v>
+      <c r="B26" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="135.5" customHeight="1">
+    </row>
+    <row r="27" ht="94.25" customHeight="1" spans="1:6">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>18</v>
+      <c r="B27" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="149.25" customHeight="1">
+    </row>
+    <row r="28" ht="94.25" customHeight="1" spans="1:6">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" ht="135.5" customHeight="1" spans="1:6">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" ht="149.25" customHeight="1" spans="1:6">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="24" customHeight="1">
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" ht="24" customHeight="1">
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" ht="24" customHeight="1">
+    </row>
+    <row r="31" ht="24" customHeight="1" spans="5:6">
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="24" customHeight="1">
+    <row r="32" ht="24" customHeight="1" spans="5:6">
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="5:6" ht="24" customHeight="1">
+    <row r="33" ht="24" customHeight="1" spans="5:6">
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="5:6" ht="24" customHeight="1">
+    <row r="34" ht="24" customHeight="1" spans="5:6">
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="5:6" ht="24" customHeight="1">
+    <row r="35" ht="24" customHeight="1" spans="5:6">
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="5:6" ht="24" customHeight="1">
+    <row r="36" ht="24" customHeight="1" spans="5:6">
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="5:6" ht="24" customHeight="1">
+    <row r="37" ht="24" customHeight="1" spans="5:6">
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="5:6" ht="24" customHeight="1">
+    <row r="38" ht="24" customHeight="1" spans="5:6">
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="5:6" ht="24" customHeight="1">
+    <row r="39" ht="24" customHeight="1" spans="5:6">
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="5:6" ht="24" customHeight="1">
+    <row r="40" ht="24" customHeight="1" spans="5:6">
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="5:6" ht="24" customHeight="1">
+    <row r="41" ht="24" customHeight="1" spans="5:6">
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="5:6" ht="24" customHeight="1">
+    <row r="42" ht="24" customHeight="1" spans="5:6">
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="5:6" ht="24" customHeight="1">
+    <row r="43" ht="24" customHeight="1" spans="5:6">
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="5:6" ht="24" customHeight="1">
+    <row r="44" ht="24" customHeight="1" spans="5:6">
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="5:6" ht="24" customHeight="1">
+    <row r="45" ht="24" customHeight="1" spans="5:6">
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="5:6" ht="24" customHeight="1">
+    <row r="46" ht="24" customHeight="1" spans="5:6">
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="5:6" ht="24" customHeight="1">
+    <row r="47" ht="24" customHeight="1" spans="5:6">
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="5:6" ht="24" customHeight="1">
+    <row r="48" ht="24" customHeight="1" spans="5:6">
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="5:6" ht="24" customHeight="1">
+    <row r="49" ht="24" customHeight="1" spans="5:6">
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="5:6" ht="24" customHeight="1">
+    <row r="50" ht="24" customHeight="1" spans="5:6">
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="5:6" ht="24" customHeight="1">
+    <row r="51" ht="24" customHeight="1" spans="5:6">
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="5:6" ht="24" customHeight="1">
+    <row r="52" ht="24" customHeight="1" spans="5:6">
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="5:6" ht="24" customHeight="1">
+    <row r="53" ht="24" customHeight="1" spans="5:6">
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="5:6" ht="24" customHeight="1">
+    <row r="54" ht="24" customHeight="1" spans="5:6">
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="5:6" ht="24" customHeight="1">
+    <row r="55" ht="24" customHeight="1" spans="5:6">
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="5:6" ht="24" customHeight="1">
+    <row r="56" ht="24" customHeight="1" spans="5:6">
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="5:6" ht="24" customHeight="1">
+    <row r="57" ht="24" customHeight="1" spans="5:6">
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="5:6" ht="24" customHeight="1">
+    <row r="58" ht="24" customHeight="1" spans="5:6">
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="5:6" ht="24" customHeight="1">
+    <row r="59" ht="24" customHeight="1" spans="5:6">
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="5:6" ht="24" customHeight="1">
+    <row r="60" ht="24" customHeight="1" spans="5:6">
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="5:6" ht="24" customHeight="1">
+    <row r="61" ht="24" customHeight="1" spans="5:6">
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="5:6" ht="24" customHeight="1">
+    <row r="62" ht="24" customHeight="1" spans="5:6">
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="5:6" ht="24" customHeight="1">
+    <row r="63" ht="24" customHeight="1" spans="5:6">
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="5:6" ht="24" customHeight="1">
+    <row r="64" ht="24" customHeight="1" spans="5:6">
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="5:6" ht="24" customHeight="1">
+    <row r="65" ht="24" customHeight="1" spans="5:6">
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="5:6" ht="24" customHeight="1">
+    <row r="66" ht="24" customHeight="1" spans="5:6">
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="5:6" ht="24" customHeight="1">
+    <row r="67" ht="24" customHeight="1" spans="5:6">
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="5:6" ht="24" customHeight="1">
+    <row r="68" ht="24" customHeight="1" spans="5:6">
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="5:6" ht="24" customHeight="1">
+    <row r="69" ht="24" customHeight="1" spans="5:6">
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="5:6" ht="24" customHeight="1">
+    <row r="70" ht="24" customHeight="1" spans="5:6">
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="5:6" ht="24" customHeight="1">
+    <row r="71" ht="24" customHeight="1" spans="5:6">
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="5:6" ht="24" customHeight="1">
+    <row r="72" ht="24" customHeight="1" spans="5:6">
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="5:6" ht="24" customHeight="1">
+    <row r="73" ht="24" customHeight="1" spans="5:6">
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="5:6" ht="24" customHeight="1">
+    <row r="74" ht="24" customHeight="1" spans="5:6">
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="5:6" ht="24" customHeight="1">
+    <row r="75" ht="24" customHeight="1" spans="5:6">
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="5:6" ht="24" customHeight="1">
+    <row r="76" ht="24" customHeight="1" spans="5:6">
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="5:6" ht="24" customHeight="1">
+    <row r="77" ht="24" customHeight="1" spans="5:6">
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="5:6" ht="24" customHeight="1">
+    <row r="78" ht="24" customHeight="1" spans="5:6">
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="5:6" ht="24" customHeight="1">
+    <row r="79" ht="24" customHeight="1" spans="5:6">
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="5:6" ht="24" customHeight="1">
+    <row r="80" ht="24" customHeight="1" spans="5:6">
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="5:6" ht="24" customHeight="1">
+    <row r="81" ht="24" customHeight="1" spans="5:6">
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="5:6" ht="24" customHeight="1">
+    <row r="82" ht="24" customHeight="1" spans="5:6">
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="5:6" ht="24" customHeight="1">
+    <row r="83" ht="24" customHeight="1" spans="5:6">
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="5:6" ht="24" customHeight="1">
+    <row r="84" ht="24" customHeight="1" spans="5:6">
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="5:6" ht="24" customHeight="1">
+    <row r="85" ht="24" customHeight="1" spans="5:6">
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="5:6" ht="24" customHeight="1">
+    <row r="86" ht="24" customHeight="1" spans="5:6">
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="5:6" ht="24" customHeight="1">
+    <row r="87" ht="24" customHeight="1" spans="5:6">
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="5:6" ht="24" customHeight="1">
+    <row r="88" ht="24" customHeight="1" spans="5:6">
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="5:6" ht="24" customHeight="1">
+    <row r="89" ht="24" customHeight="1" spans="5:6">
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="5:6" ht="24" customHeight="1">
+    <row r="90" ht="24" customHeight="1" spans="5:6">
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="5:6" ht="24" customHeight="1">
+    <row r="91" ht="24" customHeight="1" spans="5:6">
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="5:6" ht="24" customHeight="1">
+    <row r="92" ht="24" customHeight="1" spans="5:6">
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="5:6" ht="24" customHeight="1">
+    <row r="93" ht="24" customHeight="1" spans="5:6">
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="5:6" ht="24" customHeight="1">
+    <row r="94" ht="24" customHeight="1" spans="5:6">
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="5:6" ht="24" customHeight="1">
+    <row r="95" ht="24" customHeight="1" spans="5:6">
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="5:6" ht="24" customHeight="1">
+    <row r="96" ht="24" customHeight="1" spans="5:6">
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="5:6" ht="24" customHeight="1">
+    <row r="97" ht="24" customHeight="1" spans="5:6">
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="5:6" ht="24" customHeight="1">
+    <row r="98" ht="24" customHeight="1" spans="5:6">
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="5:6" ht="24" customHeight="1">
+    <row r="99" ht="24" customHeight="1" spans="5:6">
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="5:6" ht="24" customHeight="1">
+    <row r="100" ht="24" customHeight="1" spans="5:6">
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="5:6" ht="24" customHeight="1">
+    <row r="101" ht="24" customHeight="1" spans="5:6">
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="5:6" ht="24" customHeight="1">
+    <row r="102" ht="24" customHeight="1" spans="5:6">
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="5:6" ht="24" customHeight="1">
+    <row r="103" ht="24" customHeight="1" spans="5:6">
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="5:6" ht="24" customHeight="1">
+    <row r="104" ht="24" customHeight="1" spans="5:6">
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="5:6" ht="24" customHeight="1">
+    <row r="105" ht="24" customHeight="1" spans="5:6">
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="5:6" ht="24" customHeight="1">
+    <row r="106" ht="24" customHeight="1" spans="5:6">
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="5:6" ht="24" customHeight="1">
+    <row r="107" ht="24" customHeight="1" spans="5:6">
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="5:6" ht="24" customHeight="1">
+    <row r="108" ht="24" customHeight="1" spans="5:6">
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="5:6" ht="24" customHeight="1">
+    <row r="109" ht="24" customHeight="1" spans="5:6">
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="5:6" ht="24" customHeight="1">
+    <row r="110" ht="24" customHeight="1" spans="5:6">
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="5:6" ht="24" customHeight="1">
+    <row r="111" ht="24" customHeight="1" spans="5:6">
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="5:6" ht="24" customHeight="1">
+    <row r="112" ht="24" customHeight="1" spans="5:6">
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="5:6" ht="24" customHeight="1">
+    <row r="113" ht="24" customHeight="1" spans="5:6">
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="5:6" ht="24" customHeight="1">
+    <row r="114" ht="24" customHeight="1" spans="5:6">
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="5:6" ht="24" customHeight="1">
+    <row r="115" ht="24" customHeight="1" spans="5:6">
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="5:6" ht="24" customHeight="1">
+    <row r="116" ht="24" customHeight="1" spans="5:6">
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="5:6" ht="24" customHeight="1">
+    <row r="117" ht="24" customHeight="1" spans="5:6">
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="5:6" ht="24" customHeight="1">
+    <row r="118" ht="24" customHeight="1" spans="5:6">
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="5:6" ht="24" customHeight="1">
+    <row r="119" ht="24" customHeight="1" spans="5:6">
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="5:6" ht="24" customHeight="1">
+    <row r="120" ht="24" customHeight="1" spans="5:6">
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="5:6" ht="24" customHeight="1">
+    <row r="121" ht="24" customHeight="1" spans="5:6">
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="5:6" ht="24" customHeight="1">
+    <row r="122" ht="24" customHeight="1" spans="5:6">
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
     </row>
-    <row r="123" spans="5:6" ht="24" customHeight="1">
+    <row r="123" ht="24" customHeight="1" spans="5:6">
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="5:6" ht="24" customHeight="1">
+    <row r="124" ht="24" customHeight="1" spans="5:6">
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="5:6" ht="24" customHeight="1">
+    <row r="125" ht="24" customHeight="1" spans="5:6">
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="5:6" ht="24" customHeight="1">
+    <row r="126" ht="24" customHeight="1" spans="5:6">
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="5:6" ht="24" customHeight="1">
+    <row r="127" ht="24" customHeight="1" spans="5:6">
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="5:6" ht="24" customHeight="1">
+    <row r="128" ht="24" customHeight="1" spans="5:6">
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
     </row>
-    <row r="129" spans="5:6" ht="24" customHeight="1">
+    <row r="129" ht="24" customHeight="1" spans="5:6">
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="5:6" ht="24" customHeight="1">
+    <row r="130" ht="24" customHeight="1" spans="5:6">
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="5:6" ht="24" customHeight="1">
+    <row r="131" ht="24" customHeight="1" spans="5:6">
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="5:6" ht="24" customHeight="1">
+    <row r="132" ht="24" customHeight="1" spans="5:6">
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="5:6" ht="24" customHeight="1">
+    <row r="133" ht="24" customHeight="1" spans="5:6">
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
     </row>
-    <row r="134" spans="5:6" ht="24" customHeight="1">
+    <row r="134" ht="24" customHeight="1" spans="5:6">
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="5:6" ht="24" customHeight="1">
+    <row r="135" ht="24" customHeight="1" spans="5:6">
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
     </row>
-    <row r="136" spans="5:6" ht="24" customHeight="1">
+    <row r="136" ht="24" customHeight="1" spans="5:6">
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
     </row>
-    <row r="137" spans="5:6" ht="24" customHeight="1">
+    <row r="137" ht="24" customHeight="1" spans="5:6">
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
     </row>
-    <row r="138" spans="5:6" ht="24" customHeight="1">
+    <row r="138" ht="24" customHeight="1" spans="5:6">
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
     </row>
-    <row r="139" spans="5:6" ht="24" customHeight="1">
+    <row r="139" ht="24" customHeight="1" spans="5:6">
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="5:6" ht="24" customHeight="1">
+    <row r="140" ht="24" customHeight="1" spans="5:6">
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
     </row>
-    <row r="141" spans="5:6" ht="24" customHeight="1">
+    <row r="141" ht="24" customHeight="1" spans="5:6">
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
     </row>
-    <row r="142" spans="5:6" ht="24" customHeight="1">
+    <row r="142" ht="24" customHeight="1" spans="5:6">
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
     </row>
-    <row r="143" spans="5:6" ht="24" customHeight="1">
+    <row r="143" ht="24" customHeight="1" spans="5:6">
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
     </row>
-    <row r="144" spans="5:6" ht="24" customHeight="1">
+    <row r="144" ht="24" customHeight="1" spans="5:6">
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
     </row>
-    <row r="145" spans="5:6" ht="24" customHeight="1">
+    <row r="145" ht="24" customHeight="1" spans="5:6">
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
     </row>
-    <row r="146" spans="5:6" ht="24" customHeight="1">
+    <row r="146" ht="24" customHeight="1" spans="5:6">
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
     </row>
-    <row r="147" spans="5:6" ht="24" customHeight="1">
+    <row r="147" ht="24" customHeight="1" spans="5:6">
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
     </row>
-    <row r="148" spans="5:6" ht="24" customHeight="1">
+    <row r="148" ht="24" customHeight="1" spans="5:6">
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
     </row>
-    <row r="149" spans="5:6" ht="24" customHeight="1">
+    <row r="149" ht="24" customHeight="1" spans="5:6">
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
     </row>
-    <row r="150" spans="5:6" ht="24" customHeight="1">
+    <row r="150" ht="24" customHeight="1" spans="5:6">
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
     </row>
-    <row r="151" spans="5:6" ht="24" customHeight="1">
+    <row r="151" ht="24" customHeight="1" spans="5:6">
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
     </row>
-    <row r="152" spans="5:6" ht="24" customHeight="1">
+    <row r="152" ht="24" customHeight="1" spans="5:6">
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
     </row>
-    <row r="153" spans="5:6" ht="24" customHeight="1">
+    <row r="153" ht="24" customHeight="1" spans="5:6">
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
     </row>
-    <row r="154" spans="5:6" ht="24" customHeight="1">
+    <row r="154" ht="24" customHeight="1" spans="5:6">
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
     </row>
-    <row r="155" spans="5:6" ht="24" customHeight="1">
+    <row r="155" ht="24" customHeight="1" spans="5:6">
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
     </row>
-    <row r="156" spans="5:6" ht="24" customHeight="1">
+    <row r="156" ht="24" customHeight="1" spans="5:6">
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
     </row>
-    <row r="157" spans="5:6" ht="24" customHeight="1">
+    <row r="157" ht="24" customHeight="1" spans="5:6">
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
     </row>
-    <row r="158" spans="5:6" ht="24" customHeight="1">
+    <row r="158" ht="24" customHeight="1" spans="5:6">
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
     </row>
-    <row r="159" spans="5:6" ht="24" customHeight="1">
+    <row r="159" ht="24" customHeight="1" spans="5:6">
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
     </row>
-    <row r="160" spans="5:6" ht="24" customHeight="1">
+    <row r="160" ht="24" customHeight="1" spans="5:6">
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
     </row>
-    <row r="161" spans="5:6" ht="24" customHeight="1">
+    <row r="161" ht="24" customHeight="1" spans="5:6">
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
     </row>
-    <row r="162" spans="5:6" ht="24" customHeight="1">
+    <row r="162" ht="24" customHeight="1" spans="5:6">
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
     </row>
-    <row r="163" spans="5:6" ht="24" customHeight="1">
+    <row r="163" ht="24" customHeight="1" spans="5:6">
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
     </row>
-    <row r="164" spans="5:6" ht="24" customHeight="1">
+    <row r="164" ht="24" customHeight="1" spans="5:6">
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
     </row>
-    <row r="165" spans="5:6" ht="24" customHeight="1">
+    <row r="165" ht="24" customHeight="1" spans="5:6">
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
     </row>
-    <row r="166" spans="5:6" ht="24" customHeight="1">
+    <row r="166" ht="24" customHeight="1" spans="5:6">
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
     </row>
-    <row r="167" spans="5:6" ht="24" customHeight="1">
+    <row r="167" ht="24" customHeight="1" spans="5:6">
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
     </row>
-    <row r="168" spans="5:6" ht="24" customHeight="1">
+    <row r="168" ht="24" customHeight="1" spans="5:6">
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
     </row>
-    <row r="169" spans="5:6" ht="24" customHeight="1">
+    <row r="169" ht="24" customHeight="1" spans="5:6">
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
     </row>
-    <row r="170" spans="5:6" ht="24" customHeight="1">
+    <row r="170" ht="24" customHeight="1" spans="5:6">
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
     </row>
-    <row r="171" spans="5:6" ht="24" customHeight="1">
+    <row r="171" ht="24" customHeight="1" spans="5:6">
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
     </row>
-    <row r="172" spans="5:6" ht="24" customHeight="1">
+    <row r="172" ht="24" customHeight="1" spans="5:6">
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
     </row>
-    <row r="173" spans="5:6" ht="24" customHeight="1">
+    <row r="173" ht="24" customHeight="1" spans="5:6">
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
     </row>
-    <row r="174" spans="5:6" ht="24" customHeight="1">
+    <row r="174" ht="24" customHeight="1" spans="5:6">
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
     </row>
-    <row r="175" spans="5:6" ht="24" customHeight="1">
+    <row r="175" ht="24" customHeight="1" spans="5:6">
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
     </row>
-    <row r="176" spans="5:6" ht="24" customHeight="1">
+    <row r="176" ht="24" customHeight="1" spans="5:6">
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
     </row>
-    <row r="177" spans="5:6" ht="24" customHeight="1">
+    <row r="177" ht="24" customHeight="1" spans="5:6">
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
     </row>
-    <row r="178" spans="5:6" ht="24" customHeight="1">
+    <row r="178" ht="24" customHeight="1" spans="5:6">
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
     </row>
-    <row r="179" spans="5:6" ht="24" customHeight="1">
+    <row r="179" ht="24" customHeight="1" spans="5:6">
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
     </row>
-    <row r="180" spans="5:6" ht="24" customHeight="1">
+    <row r="180" ht="24" customHeight="1" spans="5:6">
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
     </row>
-    <row r="181" spans="5:6" ht="24" customHeight="1">
+    <row r="181" ht="24" customHeight="1" spans="5:6">
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
     </row>
-    <row r="182" spans="5:6" ht="24" customHeight="1">
+    <row r="182" ht="24" customHeight="1" spans="5:6">
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
     </row>
-    <row r="183" spans="5:6" ht="24" customHeight="1">
+    <row r="183" ht="24" customHeight="1" spans="5:6">
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
     </row>
-    <row r="184" spans="5:6" ht="24" customHeight="1">
+    <row r="184" ht="24" customHeight="1" spans="5:6">
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
     </row>
-    <row r="185" spans="5:6" ht="24" customHeight="1">
+    <row r="185" ht="24" customHeight="1" spans="5:6">
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
     </row>
-    <row r="186" spans="5:6" ht="24" customHeight="1">
+    <row r="186" ht="24" customHeight="1" spans="5:6">
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
     </row>
-    <row r="187" spans="5:6" ht="24" customHeight="1">
+    <row r="187" ht="24" customHeight="1" spans="5:6">
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
     </row>
-    <row r="188" spans="5:6" ht="24" customHeight="1">
+    <row r="188" ht="24" customHeight="1" spans="5:6">
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
     </row>
-    <row r="189" spans="5:6" ht="24" customHeight="1">
+    <row r="189" ht="24" customHeight="1" spans="5:6">
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
     </row>
-    <row r="190" spans="5:6" ht="24" customHeight="1">
+    <row r="190" ht="24" customHeight="1" spans="5:6">
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
     </row>
-    <row r="191" spans="5:6" ht="24" customHeight="1">
+    <row r="191" ht="24" customHeight="1" spans="5:6">
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
     </row>
-    <row r="192" spans="5:6" ht="24" customHeight="1">
+    <row r="192" ht="24" customHeight="1" spans="5:6">
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
     </row>
-    <row r="193" spans="5:6" ht="24" customHeight="1">
+    <row r="193" ht="24" customHeight="1" spans="5:6">
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
     </row>
-    <row r="194" spans="5:6" ht="24" customHeight="1">
+    <row r="194" ht="24" customHeight="1" spans="5:6">
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
     </row>
-    <row r="195" spans="5:6" ht="24" customHeight="1">
+    <row r="195" ht="24" customHeight="1" spans="5:6">
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
     </row>
-    <row r="196" spans="5:6" ht="24" customHeight="1">
+    <row r="196" ht="24" customHeight="1" spans="5:6">
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
     </row>
+    <row r="197" ht="24" customHeight="1" spans="5:6">
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+    </row>
+    <row r="198" ht="24" customHeight="1" spans="5:6">
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D28" r:id="rId1" location="MAV_CMD_DO_ORBIT) - Start an orbit with specified center point, radius, direction, altitude, speed and [yaw direction](https://mavlink.io/en/messages/common.html#ORBIT_YAW_BEHAVIOUR) (vehicle defaults to faceing centre of orbit)." display="[MAV_CMD_DO_ORBIT](https://mavlink.io/en/messages/common.html#MAV_CMD_DO_ORBIT) - Start an orbit with specified center point, radius, direction, altitude, speed and [yaw direction](https://mavlink.io/en/messages/common.html#ORBIT_YAW_BEHAVIOUR) (vehicle d" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="D30" r:id="rId1" location="MAV_CMD_DO_ORBIT) - Start an orbit with specified center point, radius, direction, altitude, speed and [yaw direction](https://mavlink.io/en/messages/common.html#ORBIT_YAW_BEHAVIOUR) (vehicle defaults to faceing centre of orbit)." display="[MAV_CMD_DO_ORBIT] - Start an orbit with specified center point, radius, direction, altitude, speed and [yaw direction](#ORBIT_YAW_BEHAVIOUR) (vehicle defaults to faceing centre of orbit)."/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>